--- a/HelaMedical/File/AlcoDataBaseByDate.xlsx
+++ b/HelaMedical/File/AlcoDataBaseByDate.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -175,70 +175,10 @@
     <t xml:space="preserve">возраст на момент смерти </t>
   </si>
   <si>
+    <t xml:space="preserve">Год на момент постановки </t>
+  </si>
+  <si>
     <t xml:space="preserve">Регистратор </t>
-  </si>
-  <si>
-    <t>sjdfhv</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>dsfg</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>Холост</t>
-  </si>
-  <si>
-    <t>Проживал один/одна</t>
-  </si>
-  <si>
-    <t>Начальное</t>
-  </si>
-  <si>
-    <t>sdgv</t>
-  </si>
-  <si>
-    <t>Физический труд</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Долбик-Воробей Роман Анатольевич</t>
-  </si>
-  <si>
-    <t>mxnbv</t>
-  </si>
-  <si>
-    <t>sdmvn</t>
-  </si>
-  <si>
-    <t>Гомельская обл</t>
-  </si>
-  <si>
-    <t>Жлобинский р-н</t>
-  </si>
-  <si>
-    <t>asdv</t>
-  </si>
-  <si>
-    <t>sdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вино, водкаВино, пиво. Различное. </t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Год на момент постановки</t>
   </si>
 </sst>
 </file>
@@ -285,11 +225,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,285 +511,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:51" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/HelaMedical/File/AlcoDataBaseByDate.xlsx
+++ b/HelaMedical/File/AlcoDataBaseByDate.xlsx
@@ -175,10 +175,10 @@
     <t xml:space="preserve">возраст на момент смерти </t>
   </si>
   <si>
-    <t xml:space="preserve">Год на момент постановки </t>
-  </si>
-  <si>
     <t xml:space="preserve">Регистратор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Год учета </t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +671,10 @@
         <v>48</v>
       </c>
       <c r="AX1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
